--- a/doc/excel/党建/[sample_memberTransfer]组织关系转接录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberTransfer]组织关系转接录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FD217-F168-4D4F-9811-1CE2BCEF6E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1845" windowWidth="26040" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1845" windowWidth="26040" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3D18D837-DF00-473B-B29E-623634BC4896}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,27 +42,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0D98BF7D-E470-46C6-B9C3-55EDCAE54F33}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请与组工系统里组织关系转出的类别保持一致</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,37 +65,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入党支部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出办理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认导入当天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非直属党支部必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入党组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项：
+1、红色字体为必填项；转入党组织和转入党支部请和系统中的对应全称或简称保持一致；
+2、导入数据前，请先删除注意事项，并合并该单元格；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍信有效期天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>党费缴纳至年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转入分党委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转入党支部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绍信有效期天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项：
-1、红色字体为必填项；分党委和转入党支部请和系统中的对应全称保持一致；
-2、导入数据前，请先删除注意事项，并合并该单元格；
-3、如果是直属党支部，转入党支部可以不填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,14 +222,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,14 +556,15 @@
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -576,128 +572,126 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>

--- a/doc/excel/党建/[sample_memberTransfer]组织关系转接录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberTransfer]组织关系转接录入样表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>转出办理时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认导入当天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,7 +544,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>5</v>
@@ -584,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -601,20 +597,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
